--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44490.52944470796</v>
+        <v>-30235.0344292198</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22509303.28721681</v>
+        <v>22515275.52465326</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2052302.697987505</v>
+        <v>2038830.973266804</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>408.3496499462784</v>
+        <v>408.4176323798642</v>
       </c>
       <c r="H2" t="n">
-        <v>313.8630332531334</v>
+        <v>314.5592583510934</v>
       </c>
       <c r="I2" t="n">
-        <v>110.681064734865</v>
+        <v>113.3019575056797</v>
       </c>
       <c r="J2" t="n">
-        <v>59.84024364032009</v>
+        <v>65.61016771286884</v>
       </c>
       <c r="K2" t="n">
-        <v>56.37184468858106</v>
+        <v>65.01946517481471</v>
       </c>
       <c r="L2" t="n">
-        <v>45.70582857298459</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M2" t="n">
-        <v>30.06347586924086</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N2" t="n">
-        <v>27.52066621168497</v>
+        <v>39.65094179247474</v>
       </c>
       <c r="O2" t="n">
-        <v>34.74245926588512</v>
+        <v>46.19673452270656</v>
       </c>
       <c r="P2" t="n">
-        <v>52.30405746936195</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q2" t="n">
-        <v>70.90673990138414</v>
+        <v>78.24807792626756</v>
       </c>
       <c r="R2" t="n">
-        <v>97.3227064959341</v>
+        <v>101.5931080396651</v>
       </c>
       <c r="S2" t="n">
-        <v>149.3192393418489</v>
+        <v>150.8683890471842</v>
       </c>
       <c r="T2" t="n">
-        <v>218.282426424783</v>
+        <v>218.5800195278046</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1461226235864</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22638,49 +22640,49 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.4945968679949</v>
+        <v>118.5309706766818</v>
       </c>
       <c r="H3" t="n">
-        <v>83.8929528334216</v>
+        <v>84.24424724889813</v>
       </c>
       <c r="I3" t="n">
-        <v>52.13564518093996</v>
+        <v>53.38798903266146</v>
       </c>
       <c r="J3" t="n">
-        <v>47.99559120793559</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K3" t="n">
-        <v>30.71833619036092</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L3" t="n">
-        <v>10.89080423875677</v>
+        <v>18.78854721703357</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.934500038118188</v>
+        <v>14.58875442338393</v>
       </c>
       <c r="P3" t="n">
-        <v>17.4563868068005</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.44436225885367</v>
+        <v>49.08744703089221</v>
       </c>
       <c r="R3" t="n">
-        <v>72.05307450006524</v>
+        <v>74.31144132362824</v>
       </c>
       <c r="S3" t="n">
-        <v>126.8086602394841</v>
+        <v>127.4842877824192</v>
       </c>
       <c r="T3" t="n">
-        <v>173.7442875975117</v>
+        <v>173.8908995719998</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9385235407196</v>
+        <v>207.940916554449</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -22717,49 +22719,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.2658257867129</v>
+        <v>166.2963203660406</v>
       </c>
       <c r="H4" t="n">
-        <v>151.2059250900332</v>
+        <v>151.4770496226014</v>
       </c>
       <c r="I4" t="n">
-        <v>122.5706220405871</v>
+        <v>123.4876772080058</v>
       </c>
       <c r="J4" t="n">
-        <v>60.9349123946991</v>
+        <v>63.09087915316801</v>
       </c>
       <c r="K4" t="n">
-        <v>48.3432795708057</v>
+        <v>51.88619524178843</v>
       </c>
       <c r="L4" t="n">
-        <v>42.22763413854418</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M4" t="n">
-        <v>42.38384272141673</v>
+        <v>47.16400664275908</v>
       </c>
       <c r="N4" t="n">
-        <v>36.21706801862751</v>
+        <v>40.88357032611205</v>
       </c>
       <c r="O4" t="n">
-        <v>46.78920077959938</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P4" t="n">
-        <v>52.55167994450286</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.88108513355061</v>
+        <v>75.43459031707346</v>
       </c>
       <c r="R4" t="n">
-        <v>108.917154517939</v>
+        <v>110.2883016938921</v>
       </c>
       <c r="S4" t="n">
-        <v>195.4606222432698</v>
+        <v>195.9920595939172</v>
       </c>
       <c r="T4" t="n">
-        <v>232.0557416755124</v>
+        <v>232.1860366962762</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5693933134903</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22796,49 +22798,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>408.3030322092966</v>
+        <v>408.3496499462784</v>
       </c>
       <c r="H5" t="n">
-        <v>313.3856093542684</v>
+        <v>313.8630332531334</v>
       </c>
       <c r="I5" t="n">
-        <v>108.8838344298736</v>
+        <v>110.681064734865</v>
       </c>
       <c r="J5" t="n">
-        <v>55.88362148615999</v>
+        <v>59.84024364032008</v>
       </c>
       <c r="K5" t="n">
-        <v>50.44189372798084</v>
+        <v>56.37184468858105</v>
       </c>
       <c r="L5" t="n">
-        <v>38.34920004422723</v>
+        <v>45.70582857298459</v>
       </c>
       <c r="M5" t="n">
-        <v>21.8778091604332</v>
+        <v>30.06347586924085</v>
       </c>
       <c r="N5" t="n">
-        <v>19.20254685767773</v>
+        <v>27.52066621168497</v>
       </c>
       <c r="O5" t="n">
-        <v>26.88789503399079</v>
+        <v>34.74245926588512</v>
       </c>
       <c r="P5" t="n">
-        <v>45.60036861920611</v>
+        <v>52.30405746936195</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.87254875688946</v>
+        <v>70.90673990138413</v>
       </c>
       <c r="R5" t="n">
-        <v>94.39435507525033</v>
+        <v>97.3227064959341</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2569376603758</v>
+        <v>149.3192393418489</v>
       </c>
       <c r="T5" t="n">
-        <v>218.0783572811451</v>
+        <v>218.282426424783</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1369546099409</v>
+        <v>253.1406840288995</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -22875,22 +22877,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.4696541797598</v>
+        <v>118.4945968679949</v>
       </c>
       <c r="H6" t="n">
-        <v>83.65205897599289</v>
+        <v>83.8929528334216</v>
       </c>
       <c r="I6" t="n">
-        <v>51.27687280091475</v>
+        <v>52.13564518093996</v>
       </c>
       <c r="J6" t="n">
-        <v>45.63905415849315</v>
+        <v>47.99559120793559</v>
       </c>
       <c r="K6" t="n">
-        <v>26.69063902916496</v>
+        <v>30.71833619036092</v>
       </c>
       <c r="L6" t="n">
-        <v>5.475068356827066</v>
+        <v>10.89080423875677</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22899,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5.934500038118173</v>
       </c>
       <c r="P6" t="n">
-        <v>12.69342733144536</v>
+        <v>17.4563868068005</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.26044998519077</v>
+        <v>44.44436225885367</v>
       </c>
       <c r="R6" t="n">
-        <v>70.50443987437902</v>
+        <v>72.05307450006524</v>
       </c>
       <c r="S6" t="n">
-        <v>126.3453607452921</v>
+        <v>126.8086602394841</v>
       </c>
       <c r="T6" t="n">
-        <v>173.6437510602833</v>
+        <v>173.7442875975117</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9368825743884</v>
+        <v>207.9385235407196</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -22954,49 +22956,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2449146747757</v>
+        <v>166.2658257867129</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0200062948104</v>
+        <v>151.2059250900332</v>
       </c>
       <c r="I7" t="n">
-        <v>121.9417678743324</v>
+        <v>122.5706220405871</v>
       </c>
       <c r="J7" t="n">
-        <v>59.45649678074412</v>
+        <v>60.9349123946991</v>
       </c>
       <c r="K7" t="n">
-        <v>45.91378856574659</v>
+        <v>48.3432795708057</v>
       </c>
       <c r="L7" t="n">
-        <v>39.11872209654599</v>
+        <v>42.22763413854418</v>
       </c>
       <c r="M7" t="n">
-        <v>39.10593087476303</v>
+        <v>42.38384272141673</v>
       </c>
       <c r="N7" t="n">
-        <v>33.01709758919402</v>
+        <v>36.21706801862751</v>
       </c>
       <c r="O7" t="n">
-        <v>43.83351015779507</v>
+        <v>46.78920077959938</v>
       </c>
       <c r="P7" t="n">
-        <v>50.02257600621597</v>
+        <v>52.55167994450285</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.13006466034253</v>
+        <v>72.88108513355061</v>
       </c>
       <c r="R7" t="n">
-        <v>107.9769148848387</v>
+        <v>108.917154517939</v>
       </c>
       <c r="S7" t="n">
-        <v>195.0961985925109</v>
+        <v>195.4606222432698</v>
       </c>
       <c r="T7" t="n">
-        <v>231.9663941972356</v>
+        <v>232.0557416755124</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5665893666941</v>
+        <v>282.5677299727997</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23033,49 +23035,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>408.2559037484226</v>
+        <v>408.3496499462784</v>
       </c>
       <c r="H8" t="n">
-        <v>312.9029550043414</v>
+        <v>313.8630332531334</v>
       </c>
       <c r="I8" t="n">
-        <v>107.0669144420247</v>
+        <v>110.681064734865</v>
       </c>
       <c r="J8" t="n">
-        <v>51.88365228004648</v>
+        <v>59.84024364032008</v>
       </c>
       <c r="K8" t="n">
-        <v>44.44697677306648</v>
+        <v>56.37184468858104</v>
       </c>
       <c r="L8" t="n">
-        <v>30.91197545483701</v>
+        <v>45.70582857298457</v>
       </c>
       <c r="M8" t="n">
-        <v>13.60246380497313</v>
+        <v>30.06347586924083</v>
       </c>
       <c r="N8" t="n">
-        <v>10.7932977627591</v>
+        <v>27.52066621168495</v>
       </c>
       <c r="O8" t="n">
-        <v>18.94727957188903</v>
+        <v>34.7424592658851</v>
       </c>
       <c r="P8" t="n">
-        <v>38.8232370349338</v>
+        <v>52.30405746936194</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.78320517767101</v>
+        <v>70.90673990138413</v>
       </c>
       <c r="R8" t="n">
-        <v>91.43392189486737</v>
+        <v>97.32270649593409</v>
       </c>
       <c r="S8" t="n">
-        <v>147.1829978582072</v>
+        <v>149.3192393418489</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8720524436687</v>
+        <v>218.282426424783</v>
       </c>
       <c r="U8" t="n">
-        <v>253.133184333071</v>
+        <v>253.1406840288995</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23112,22 +23114,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>118.4444382301515</v>
+        <v>118.4945968679949</v>
       </c>
       <c r="H9" t="n">
-        <v>83.40852598898685</v>
+        <v>83.8929528334216</v>
       </c>
       <c r="I9" t="n">
-        <v>50.4086920797534</v>
+        <v>52.13564518093996</v>
       </c>
       <c r="J9" t="n">
-        <v>43.25669990186429</v>
+        <v>47.99559120793558</v>
       </c>
       <c r="K9" t="n">
-        <v>22.61881614878314</v>
+        <v>30.71833619036091</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.89080423875676</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23136,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>5.934500038118173</v>
       </c>
       <c r="P9" t="n">
-        <v>7.878286918971142</v>
+        <v>17.45638680680048</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.0416561369513</v>
+        <v>44.44436225885367</v>
       </c>
       <c r="R9" t="n">
-        <v>68.93883907326308</v>
+        <v>72.05307450006524</v>
       </c>
       <c r="S9" t="n">
-        <v>125.8769855409459</v>
+        <v>126.8086602394841</v>
       </c>
       <c r="T9" t="n">
-        <v>173.5421130879587</v>
+        <v>173.7442875975117</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9352236303352</v>
+        <v>207.9385235407196</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
@@ -23191,49 +23193,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2237744696828</v>
+        <v>166.2658257867129</v>
       </c>
       <c r="H10" t="n">
-        <v>150.8320506531661</v>
+        <v>151.2059250900332</v>
       </c>
       <c r="I10" t="n">
-        <v>121.3060242520837</v>
+        <v>122.5706220405871</v>
       </c>
       <c r="J10" t="n">
-        <v>57.96188428067518</v>
+        <v>60.9349123946991</v>
       </c>
       <c r="K10" t="n">
-        <v>43.45768110131544</v>
+        <v>48.34327957080569</v>
       </c>
       <c r="L10" t="n">
-        <v>35.97575015027785</v>
+        <v>42.22763413854417</v>
       </c>
       <c r="M10" t="n">
-        <v>35.79210763460761</v>
+        <v>42.38384272141672</v>
       </c>
       <c r="N10" t="n">
-        <v>29.78206965893037</v>
+        <v>36.21706801862751</v>
       </c>
       <c r="O10" t="n">
-        <v>40.84543825975317</v>
+        <v>46.78920077959938</v>
       </c>
       <c r="P10" t="n">
-        <v>47.46576429206949</v>
+        <v>52.55167994450285</v>
       </c>
       <c r="Q10" t="n">
-        <v>69.35986075933506</v>
+        <v>72.88108513355061</v>
       </c>
       <c r="R10" t="n">
-        <v>107.0263743903882</v>
+        <v>108.917154517939</v>
       </c>
       <c r="S10" t="n">
-        <v>194.7277824728462</v>
+        <v>195.4606222432698</v>
       </c>
       <c r="T10" t="n">
-        <v>231.876067866384</v>
+        <v>232.0557416755124</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5654362645981</v>
+        <v>282.5677299727997</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -23270,49 +23272,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H11" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I11" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J11" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K11" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L11" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M11" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P11" t="n">
-        <v>30.12476724996209</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R11" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S11" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T11" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23349,19 +23351,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H12" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I12" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J12" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K12" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R12" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S12" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T12" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23428,49 +23430,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H13" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I13" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J13" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K13" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L13" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M13" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N13" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O13" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P13" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R13" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T13" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23507,49 +23509,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H14" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I14" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J14" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K14" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L14" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M14" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P14" t="n">
-        <v>30.12476724996209</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R14" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S14" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T14" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23586,19 +23588,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H15" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I15" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J15" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K15" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R15" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S15" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T15" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23665,49 +23667,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H16" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I16" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J16" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K16" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L16" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M16" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N16" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O16" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P16" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R16" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T16" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23744,49 +23746,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H17" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I17" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J17" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K17" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L17" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M17" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P17" t="n">
-        <v>30.12476724996209</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R17" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S17" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T17" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23823,19 +23825,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H18" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I18" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J18" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K18" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R18" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S18" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T18" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23902,49 +23904,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H19" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I19" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J19" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K19" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L19" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M19" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N19" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O19" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P19" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R19" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S19" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T19" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23981,49 +23983,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H20" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I20" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J20" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K20" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L20" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M20" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P20" t="n">
-        <v>30.12476724996209</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R20" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S20" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T20" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24060,19 +24062,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H21" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I21" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J21" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K21" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R21" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S21" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T21" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24139,49 +24141,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H22" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I22" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J22" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K22" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L22" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M22" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N22" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O22" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P22" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R22" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S22" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T22" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24218,49 +24220,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H23" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I23" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J23" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K23" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L23" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M23" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P23" t="n">
-        <v>30.12476724996209</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R23" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S23" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T23" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24297,19 +24299,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H24" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I24" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J24" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K24" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R24" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S24" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T24" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -24376,49 +24378,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H25" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I25" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J25" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K25" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L25" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M25" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N25" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O25" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P25" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R25" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S25" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T25" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24455,49 +24457,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H26" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I26" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J26" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K26" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L26" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M26" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P26" t="n">
-        <v>30.12476724996209</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R26" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S26" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T26" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24534,19 +24536,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H27" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I27" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J27" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K27" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R27" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S27" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T27" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -24613,49 +24615,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H28" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I28" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J28" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K28" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L28" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M28" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N28" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O28" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P28" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R28" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S28" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T28" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24692,49 +24694,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H29" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I29" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J29" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K29" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L29" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M29" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P29" t="n">
-        <v>30.12476724996209</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R29" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S29" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T29" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24771,19 +24773,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H30" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I30" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J30" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K30" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R30" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S30" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T30" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24850,49 +24852,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H31" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I31" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J31" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K31" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L31" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M31" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N31" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O31" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P31" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R31" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S31" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T31" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24929,49 +24931,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H32" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I32" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J32" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K32" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L32" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M32" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P32" t="n">
-        <v>30.12476724996209</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R32" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S32" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T32" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25008,19 +25010,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H33" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I33" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J33" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K33" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R33" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S33" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -25087,49 +25089,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H34" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I34" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J34" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K34" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L34" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M34" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N34" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O34" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P34" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R34" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S34" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T34" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25166,49 +25168,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H35" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I35" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J35" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K35" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L35" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M35" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P35" t="n">
-        <v>30.12476724996209</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R35" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S35" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T35" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25245,19 +25247,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H36" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I36" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J36" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K36" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R36" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S36" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T36" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -25324,49 +25326,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H37" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I37" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J37" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K37" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L37" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M37" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N37" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O37" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P37" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R37" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S37" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T37" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25403,49 +25405,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H38" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I38" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J38" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K38" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L38" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M38" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P38" t="n">
-        <v>30.12476724996209</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R38" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S38" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T38" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25482,19 +25484,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H39" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I39" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J39" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K39" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R39" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S39" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T39" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25561,49 +25563,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H40" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I40" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J40" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K40" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L40" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M40" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N40" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O40" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P40" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R40" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S40" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T40" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25640,49 +25642,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H41" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I41" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J41" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K41" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L41" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M41" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P41" t="n">
-        <v>30.12476724996209</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R41" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S41" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T41" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25719,19 +25721,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H42" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I42" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J42" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K42" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R42" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S42" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T42" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -25798,49 +25800,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H43" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I43" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J43" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K43" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L43" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M43" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N43" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O43" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P43" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R43" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S43" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T43" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25877,49 +25879,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.195414220098</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H44" t="n">
-        <v>312.2834666223883</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I44" t="n">
-        <v>104.7348919012949</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J44" t="n">
-        <v>46.74967917541601</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K44" t="n">
-        <v>36.75248193446046</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L44" t="n">
-        <v>21.36627421377045</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M44" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>8.75547455640654</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>30.12476724996209</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.25101662582001</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.63419656125427</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S44" t="n">
-        <v>145.8045927315129</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T44" t="n">
-        <v>217.6072595334283</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1283451708051</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25956,19 +25958,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4120734792183</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H45" t="n">
-        <v>83.09595063128953</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I45" t="n">
-        <v>49.29437938314847</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J45" t="n">
-        <v>40.19894069198317</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K45" t="n">
-        <v>17.39261862637501</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.91032407045577</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R45" t="n">
-        <v>66.92938550216252</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S45" t="n">
-        <v>125.2758244874271</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T45" t="n">
-        <v>173.4116604295919</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26035,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H46" t="n">
-        <v>150.5908089937078</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I46" t="n">
-        <v>120.4900453057766</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J46" t="n">
-        <v>56.04354441809058</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K46" t="n">
-        <v>40.30525941636866</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L46" t="n">
-        <v>31.94173573434517</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M46" t="n">
-        <v>31.538805043564</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N46" t="n">
-        <v>25.62990109690304</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O46" t="n">
-        <v>37.0102385447647</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P46" t="n">
-        <v>44.18408838467263</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.08779846355691</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R46" t="n">
-        <v>105.8063526647429</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S46" t="n">
-        <v>194.2549192201042</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T46" t="n">
-        <v>231.7601337355605</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>152178.397765756</v>
+        <v>137530.1071938269</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>161827.9537618137</v>
+        <v>152178.3977657561</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>171208.0164239243</v>
+        <v>152178.3977657561</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182807.8711543904</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182807.8711543904</v>
+        <v>190737.1531056562</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28372.24365124266</v>
+        <v>25641.20642596773</v>
       </c>
       <c r="C2" t="n">
-        <v>30171.31341321947</v>
+        <v>28372.24365124264</v>
       </c>
       <c r="D2" t="n">
-        <v>31920.13865530791</v>
+        <v>28372.24365124265</v>
       </c>
       <c r="E2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="F2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="G2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="H2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="I2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="J2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="K2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="L2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="M2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="N2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="O2" t="n">
-        <v>34082.8234355643</v>
+        <v>34623.07026924875</v>
       </c>
       <c r="P2" t="n">
-        <v>34082.8234355643</v>
+        <v>35561.16413834268</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163349.4162189057</v>
+        <v>147054.1129711574</v>
       </c>
       <c r="C3" t="n">
-        <v>10559.48837711418</v>
+        <v>15398.85382202829</v>
       </c>
       <c r="D3" t="n">
-        <v>10039.91658064502</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12088.62029546395</v>
+        <v>34216.28536481289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5792.623558028404</v>
       </c>
     </row>
     <row r="4">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>36954.43314024534</v>
+      </c>
+      <c r="C5" t="n">
         <v>37323.08488197248</v>
       </c>
-      <c r="C5" t="n">
-        <v>37575.88121519059</v>
-      </c>
       <c r="D5" t="n">
-        <v>37831.44707639565</v>
+        <v>37323.08488197248</v>
       </c>
       <c r="E5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="F5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="G5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="H5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="I5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="J5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="K5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="L5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="M5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="N5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="O5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
       <c r="P5" t="n">
-        <v>4531.866666117264</v>
+        <v>4813.658475070405</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172300.2574496355</v>
+        <v>-158367.339685435</v>
       </c>
       <c r="C6" t="n">
-        <v>-17964.0561790853</v>
+        <v>-24349.69505275813</v>
       </c>
       <c r="D6" t="n">
-        <v>-15951.22500173276</v>
+        <v>-8950.841230729831</v>
       </c>
       <c r="E6" t="n">
-        <v>17462.33647398308</v>
+        <v>-4217.144383336598</v>
       </c>
       <c r="F6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.14098147629</v>
       </c>
       <c r="G6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.1409814763</v>
       </c>
       <c r="H6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.1409814763</v>
       </c>
       <c r="I6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.14098147629</v>
       </c>
       <c r="J6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.14098147629</v>
       </c>
       <c r="K6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.14098147629</v>
       </c>
       <c r="L6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.14098147629</v>
       </c>
       <c r="M6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.1409814763</v>
       </c>
       <c r="N6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.14098147629</v>
       </c>
       <c r="O6" t="n">
-        <v>29550.95676944704</v>
+        <v>29999.14098147629</v>
       </c>
       <c r="P6" t="n">
-        <v>29550.95676944704</v>
+        <v>24954.88210524387</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>152.6070247818962</v>
+      </c>
+      <c r="C3" t="n">
         <v>169.5176551363521</v>
       </c>
-      <c r="C3" t="n">
-        <v>181.113817210578</v>
-      </c>
       <c r="D3" t="n">
-        <v>192.8370218530114</v>
+        <v>169.5176551363522</v>
       </c>
       <c r="E3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="F3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="G3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="H3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="I3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="J3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="K3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="L3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="M3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="N3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="O3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="P3" t="n">
-        <v>207.8837920237277</v>
+        <v>220.8100217922204</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.5176551363521</v>
+        <v>152.6070247818962</v>
       </c>
       <c r="C3" t="n">
-        <v>11.59616207422582</v>
+        <v>16.91063035445595</v>
       </c>
       <c r="D3" t="n">
-        <v>11.72320464243347</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.04677017071626</v>
+        <v>42.58919292660457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8.703173729263682</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6814780105984001</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H2" t="n">
-        <v>6.979186676040866</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I2" t="n">
-        <v>26.27268100359484</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J2" t="n">
-        <v>57.83959430202601</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K2" t="n">
-        <v>86.6865584906563</v>
+        <v>78.03893800442265</v>
       </c>
       <c r="L2" t="n">
-        <v>107.5423411575071</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M2" t="n">
-        <v>119.6615757284864</v>
+        <v>107.7244552371222</v>
       </c>
       <c r="N2" t="n">
-        <v>121.5978251260991</v>
+        <v>109.4675495453094</v>
       </c>
       <c r="O2" t="n">
-        <v>114.8213781582113</v>
+        <v>103.3671029013898</v>
       </c>
       <c r="P2" t="n">
-        <v>97.99738977156325</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.59195851700802</v>
+        <v>66.25062049212461</v>
       </c>
       <c r="R2" t="n">
-        <v>42.80789308325178</v>
+        <v>38.53749153952077</v>
       </c>
       <c r="S2" t="n">
-        <v>15.52918016651106</v>
+        <v>13.98003046117572</v>
       </c>
       <c r="T2" t="n">
-        <v>2.983169991394498</v>
+        <v>2.685576888372867</v>
       </c>
       <c r="U2" t="n">
-        <v>0.054518240847872</v>
+        <v>0.04907964616101181</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.3282490721723806</v>
       </c>
       <c r="H3" t="n">
-        <v>3.521489401983467</v>
+        <v>3.170194986506939</v>
       </c>
       <c r="I3" t="n">
-        <v>12.55390181906004</v>
+        <v>11.30155796733854</v>
       </c>
       <c r="J3" t="n">
-        <v>34.44886612539776</v>
+        <v>31.01233887572479</v>
       </c>
       <c r="K3" t="n">
-        <v>58.87859914297243</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L3" t="n">
-        <v>79.16954261816146</v>
+        <v>71.27179963988466</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>86.7530588507707</v>
+        <v>78.09880446550495</v>
       </c>
       <c r="P3" t="n">
-        <v>69.62697801251416</v>
+        <v>62.68117589579433</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.54379089706032</v>
+        <v>41.90070612502178</v>
       </c>
       <c r="R3" t="n">
-        <v>22.63860307651134</v>
+        <v>20.38023625294834</v>
       </c>
       <c r="S3" t="n">
-        <v>6.772710089645763</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T3" t="n">
-        <v>1.469686085568939</v>
+        <v>1.323074111080779</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0239883474249555</v>
+        <v>0.02159533369555136</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3056875748360448</v>
+        <v>0.2751929955083374</v>
       </c>
       <c r="H4" t="n">
-        <v>2.717840438087746</v>
+        <v>2.446715905519584</v>
       </c>
       <c r="I4" t="n">
-        <v>9.192859068705786</v>
+        <v>8.275803901287096</v>
       </c>
       <c r="J4" t="n">
-        <v>21.61211154090837</v>
+        <v>19.45614478243946</v>
       </c>
       <c r="K4" t="n">
-        <v>35.51533824004229</v>
+        <v>31.97242256905956</v>
       </c>
       <c r="L4" t="n">
-        <v>45.44740544426071</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M4" t="n">
-        <v>47.91791684452654</v>
+        <v>43.13775292318419</v>
       </c>
       <c r="N4" t="n">
-        <v>46.77853588377405</v>
+        <v>42.11203357628952</v>
       </c>
       <c r="O4" t="n">
-        <v>43.20754921409842</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P4" t="n">
-        <v>36.97152268744308</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.59716592558917</v>
+        <v>23.04366074206633</v>
       </c>
       <c r="R4" t="n">
-        <v>13.74482495580979</v>
+        <v>12.3736777798567</v>
       </c>
       <c r="S4" t="n">
-        <v>5.327300736006343</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T4" t="n">
-        <v>1.306119637935828</v>
+        <v>1.175824617171987</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.01501052702772751</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.6814780105984001</v>
       </c>
       <c r="H5" t="n">
-        <v>7.456610574905852</v>
+        <v>6.979186676040867</v>
       </c>
       <c r="I5" t="n">
-        <v>28.06991130858616</v>
+        <v>26.27268100359485</v>
       </c>
       <c r="J5" t="n">
-        <v>61.79621645618611</v>
+        <v>57.83959430202601</v>
       </c>
       <c r="K5" t="n">
-        <v>92.61650945125652</v>
+        <v>86.68655849065631</v>
       </c>
       <c r="L5" t="n">
-        <v>114.8989696862645</v>
+        <v>107.5423411575071</v>
       </c>
       <c r="M5" t="n">
-        <v>127.8472424372941</v>
+        <v>119.6615757284864</v>
       </c>
       <c r="N5" t="n">
-        <v>129.9159444801064</v>
+        <v>121.5978251260991</v>
       </c>
       <c r="O5" t="n">
-        <v>122.6759423901056</v>
+        <v>114.8213781582113</v>
       </c>
       <c r="P5" t="n">
-        <v>104.7010786217191</v>
+        <v>97.99738977156325</v>
       </c>
       <c r="Q5" t="n">
-        <v>78.62614966150271</v>
+        <v>73.59195851700804</v>
       </c>
       <c r="R5" t="n">
-        <v>45.73624450393555</v>
+        <v>42.80789308325178</v>
       </c>
       <c r="S5" t="n">
-        <v>16.59148184798411</v>
+        <v>15.52918016651106</v>
       </c>
       <c r="T5" t="n">
-        <v>3.187239135032381</v>
+        <v>2.983169991394498</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.054518240847872</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3895655690944507</v>
+        <v>0.3646228808593235</v>
       </c>
       <c r="H6" t="n">
-        <v>3.762383259412196</v>
+        <v>3.521489401983467</v>
       </c>
       <c r="I6" t="n">
-        <v>13.41267419908526</v>
+        <v>12.55390181906004</v>
       </c>
       <c r="J6" t="n">
-        <v>36.80540317484019</v>
+        <v>34.44886612539776</v>
       </c>
       <c r="K6" t="n">
-        <v>62.90629630416839</v>
+        <v>58.87859914297243</v>
       </c>
       <c r="L6" t="n">
-        <v>84.58527850009116</v>
+        <v>79.16954261816146</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
@@ -31379,25 +31381,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>86.75305885077071</v>
       </c>
       <c r="P6" t="n">
-        <v>74.38993748786929</v>
+        <v>69.62697801251416</v>
       </c>
       <c r="Q6" t="n">
-        <v>49.72770317072322</v>
+        <v>46.54379089706032</v>
       </c>
       <c r="R6" t="n">
-        <v>24.18723770219757</v>
+        <v>22.63860307651134</v>
       </c>
       <c r="S6" t="n">
-        <v>7.236009583837709</v>
+        <v>6.772710089645764</v>
       </c>
       <c r="T6" t="n">
-        <v>1.570222622797369</v>
+        <v>1.46968608556894</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02562931375621387</v>
+        <v>0.0239883474249555</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3265986867731733</v>
+        <v>0.3056875748360448</v>
       </c>
       <c r="H7" t="n">
-        <v>2.90375923331058</v>
+        <v>2.717840438087746</v>
       </c>
       <c r="I7" t="n">
-        <v>9.821713234960525</v>
+        <v>9.192859068705786</v>
       </c>
       <c r="J7" t="n">
-        <v>23.09052715486335</v>
+        <v>21.61211154090837</v>
       </c>
       <c r="K7" t="n">
-        <v>37.9448292451014</v>
+        <v>35.51533824004229</v>
       </c>
       <c r="L7" t="n">
-        <v>48.55631748625889</v>
+        <v>45.44740544426071</v>
       </c>
       <c r="M7" t="n">
-        <v>51.19582869118025</v>
+        <v>47.91791684452654</v>
       </c>
       <c r="N7" t="n">
-        <v>49.97850631320755</v>
+        <v>46.77853588377405</v>
       </c>
       <c r="O7" t="n">
-        <v>46.16323983590274</v>
+        <v>43.20754921409843</v>
       </c>
       <c r="P7" t="n">
-        <v>39.50062662572996</v>
+        <v>36.97152268744308</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.34818639879727</v>
+        <v>25.59716592558917</v>
       </c>
       <c r="R7" t="n">
-        <v>14.68506458891014</v>
+        <v>13.7448249558098</v>
       </c>
       <c r="S7" t="n">
-        <v>5.69172438676521</v>
+        <v>5.327300736006343</v>
       </c>
       <c r="T7" t="n">
-        <v>1.395467116212649</v>
+        <v>1.306119637935828</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01781447382399129</v>
+        <v>0.01667386771832974</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7752242084543167</v>
+        <v>0.6814780105984002</v>
       </c>
       <c r="H8" t="n">
-        <v>7.939264924832774</v>
+        <v>6.979186676040868</v>
       </c>
       <c r="I8" t="n">
-        <v>29.88683129643508</v>
+        <v>26.27268100359485</v>
       </c>
       <c r="J8" t="n">
-        <v>65.79618566229962</v>
+        <v>57.83959430202602</v>
       </c>
       <c r="K8" t="n">
-        <v>98.61142640617088</v>
+        <v>86.68655849065632</v>
       </c>
       <c r="L8" t="n">
-        <v>122.3361942756547</v>
+        <v>107.5423411575071</v>
       </c>
       <c r="M8" t="n">
-        <v>136.1225877927541</v>
+        <v>119.6615757284864</v>
       </c>
       <c r="N8" t="n">
-        <v>138.325193575025</v>
+        <v>121.5978251260991</v>
       </c>
       <c r="O8" t="n">
-        <v>130.6165578522074</v>
+        <v>114.8213781582113</v>
       </c>
       <c r="P8" t="n">
-        <v>111.4782102059914</v>
+        <v>97.99738977156326</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.71549324072116</v>
+        <v>73.59195851700804</v>
       </c>
       <c r="R8" t="n">
-        <v>48.69667768431852</v>
+        <v>42.80789308325179</v>
       </c>
       <c r="S8" t="n">
-        <v>17.66542165015276</v>
+        <v>15.52918016651106</v>
       </c>
       <c r="T8" t="n">
-        <v>3.393543972508773</v>
+        <v>2.983169991394498</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06201793667634533</v>
+        <v>0.054518240847872</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4147815187027039</v>
+        <v>0.3646228808593235</v>
       </c>
       <c r="H9" t="n">
-        <v>4.005916246418219</v>
+        <v>3.521489401983468</v>
       </c>
       <c r="I9" t="n">
-        <v>14.2808549202466</v>
+        <v>12.55390181906004</v>
       </c>
       <c r="J9" t="n">
-        <v>39.18775743146906</v>
+        <v>34.44886612539776</v>
       </c>
       <c r="K9" t="n">
-        <v>66.97811918455021</v>
+        <v>58.87859914297244</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>79.16954261816147</v>
       </c>
       <c r="M9" t="n">
         <v>92.38712204931191</v>
@@ -31616,25 +31618,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>86.75305885077071</v>
       </c>
       <c r="P9" t="n">
-        <v>79.20507790034351</v>
+        <v>69.62697801251417</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.9464970189627</v>
+        <v>46.54379089706033</v>
       </c>
       <c r="R9" t="n">
-        <v>25.7528385033135</v>
+        <v>22.63860307651134</v>
       </c>
       <c r="S9" t="n">
-        <v>7.704384788183989</v>
+        <v>6.772710089645765</v>
       </c>
       <c r="T9" t="n">
-        <v>1.671860595121863</v>
+        <v>1.46968608556894</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02728825780938842</v>
+        <v>0.02398834742495551</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3477388918660861</v>
+        <v>0.3056875748360449</v>
       </c>
       <c r="H10" t="n">
-        <v>3.091714874954841</v>
+        <v>2.717840438087746</v>
       </c>
       <c r="I10" t="n">
-        <v>10.45745685720921</v>
+        <v>9.192859068705788</v>
       </c>
       <c r="J10" t="n">
-        <v>24.58513965493229</v>
+        <v>21.61211154090837</v>
       </c>
       <c r="K10" t="n">
-        <v>40.40093670953254</v>
+        <v>35.5153382400423</v>
       </c>
       <c r="L10" t="n">
-        <v>51.69928943252704</v>
+        <v>45.44740544426072</v>
       </c>
       <c r="M10" t="n">
-        <v>54.50965193133566</v>
+        <v>47.91791684452655</v>
       </c>
       <c r="N10" t="n">
-        <v>53.2135342434712</v>
+        <v>46.77853588377406</v>
       </c>
       <c r="O10" t="n">
-        <v>49.15131173394463</v>
+        <v>43.20754921409843</v>
       </c>
       <c r="P10" t="n">
-        <v>42.05743833987644</v>
+        <v>36.97152268744308</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.11839029980473</v>
+        <v>25.59716592558918</v>
       </c>
       <c r="R10" t="n">
-        <v>15.63560508336056</v>
+        <v>13.7448249558098</v>
       </c>
       <c r="S10" t="n">
-        <v>6.060140506429881</v>
+        <v>5.327300736006344</v>
       </c>
       <c r="T10" t="n">
-        <v>1.485793447064186</v>
+        <v>1.306119637935828</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01896757591996836</v>
+        <v>0.01667386771832974</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H11" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I11" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J11" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K11" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L11" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M11" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P11" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R11" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S11" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T11" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H12" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I12" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J12" t="n">
-        <v>42.24551664135018</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K12" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -31856,22 +31858,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.07782908545822</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R12" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S12" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T12" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H13" t="n">
-        <v>3.33295653441321</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I13" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J13" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K13" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L13" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M13" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N13" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O13" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P13" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R13" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S13" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T13" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H14" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I14" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J14" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K14" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L14" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M14" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P14" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R14" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S14" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T14" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H15" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I15" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J15" t="n">
-        <v>42.24551664135018</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K15" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L15" t="n">
         <v>90.06034685691823</v>
@@ -32093,22 +32095,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.07782908545822</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R15" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S15" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T15" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H16" t="n">
-        <v>3.33295653441321</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I16" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J16" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K16" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L16" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M16" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N16" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O16" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P16" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R16" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S16" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T16" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H17" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I17" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J17" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K17" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L17" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M17" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P17" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R17" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S17" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T17" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H18" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I18" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J18" t="n">
-        <v>42.24551664135018</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K18" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L18" t="n">
         <v>90.06034685691823</v>
@@ -32330,22 +32332,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.07782908545822</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R18" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S18" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T18" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H19" t="n">
-        <v>3.33295653441321</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I19" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J19" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K19" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L19" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M19" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N19" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O19" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P19" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R19" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S19" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T19" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H20" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I20" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J20" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K20" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L20" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M20" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P20" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R20" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S20" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T20" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H21" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I21" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J21" t="n">
-        <v>42.24551664135018</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K21" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
@@ -32567,22 +32569,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.07782908545822</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R21" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S21" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T21" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H22" t="n">
-        <v>3.33295653441321</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I22" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J22" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K22" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L22" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M22" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N22" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O22" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P22" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R22" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S22" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T22" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H23" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I23" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J23" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K23" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L23" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M23" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P23" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R23" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S23" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T23" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H24" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I24" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J24" t="n">
-        <v>42.24551664135018</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K24" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L24" t="n">
         <v>90.06034685691823</v>
@@ -32804,22 +32806,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.07782908545822</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R24" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S24" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T24" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H25" t="n">
-        <v>3.33295653441321</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I25" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J25" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K25" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L25" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M25" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N25" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O25" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P25" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R25" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S25" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T25" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H26" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I26" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J26" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K26" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L26" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M26" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N26" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P26" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R26" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S26" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T26" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H27" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I27" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J27" t="n">
-        <v>42.24551664135018</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K27" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
@@ -33041,22 +33043,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.07782908545822</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R27" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S27" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T27" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H28" t="n">
-        <v>3.33295653441321</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I28" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J28" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K28" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L28" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M28" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N28" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O28" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P28" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R28" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S28" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T28" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H29" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I29" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J29" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K29" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L29" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M29" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N29" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P29" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R29" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S29" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T29" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H30" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I30" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J30" t="n">
-        <v>42.24551664135018</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K30" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
@@ -33278,22 +33280,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.07782908545822</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R30" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S30" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T30" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H31" t="n">
-        <v>3.33295653441321</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I31" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J31" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K31" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L31" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M31" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N31" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O31" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P31" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R31" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S31" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T31" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H32" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I32" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J32" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L32" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M32" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P32" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R32" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S32" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T32" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H33" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I33" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J33" t="n">
-        <v>42.24551664135018</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K33" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
@@ -33515,22 +33517,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.07782908545822</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R33" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S33" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T33" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H34" t="n">
-        <v>3.33295653441321</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I34" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J34" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K34" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L34" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M34" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N34" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O34" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P34" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R34" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S34" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T34" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H35" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I35" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J35" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K35" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L35" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M35" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P35" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R35" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S35" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T35" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H36" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I36" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J36" t="n">
-        <v>42.24551664135018</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K36" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
@@ -33752,22 +33754,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.07782908545822</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R36" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S36" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T36" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H37" t="n">
-        <v>3.33295653441321</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I37" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J37" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K37" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L37" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M37" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N37" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O37" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P37" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R37" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S37" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T37" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H38" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I38" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J38" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K38" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L38" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M38" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P38" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R38" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S38" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T38" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H39" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I39" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J39" t="n">
-        <v>42.24551664135018</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K39" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
@@ -33989,22 +33991,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.07782908545822</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R39" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S39" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T39" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H40" t="n">
-        <v>3.33295653441321</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I40" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J40" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K40" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L40" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M40" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N40" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O40" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P40" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R40" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S40" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T40" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H41" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I41" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J41" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K41" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L41" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M41" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P41" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R41" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S41" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T41" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H42" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I42" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J42" t="n">
-        <v>42.24551664135018</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K42" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -34226,22 +34228,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.07782908545822</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R42" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S42" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T42" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H43" t="n">
-        <v>3.33295653441321</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I43" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J43" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K43" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L43" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M43" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N43" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O43" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P43" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R43" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S43" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T43" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H44" t="n">
-        <v>8.558753306785931</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I44" t="n">
-        <v>32.21885383716488</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J44" t="n">
-        <v>70.93015876693009</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K44" t="n">
-        <v>106.3059212447769</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L44" t="n">
-        <v>131.8818955167212</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M44" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>140.8083628676899</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>120.1766799909631</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.24768179257215</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R44" t="n">
-        <v>52.49640301793161</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S44" t="n">
-        <v>19.04382677684702</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T44" t="n">
-        <v>3.658336882749217</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H45" t="n">
-        <v>4.318491604115551</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I45" t="n">
-        <v>15.39516761685153</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J45" t="n">
-        <v>42.24551664135018</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K45" t="n">
-        <v>72.20431670695834</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
@@ -34463,22 +34465,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.07782908545822</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R45" t="n">
-        <v>27.76229207441406</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S45" t="n">
-        <v>8.305545841702701</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T45" t="n">
-        <v>1.802313253488733</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H46" t="n">
-        <v>3.33295653441321</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I46" t="n">
-        <v>11.27343580351625</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J46" t="n">
-        <v>26.50347951751689</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K46" t="n">
-        <v>43.55335839447933</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L46" t="n">
-        <v>55.73330384845972</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M46" t="n">
-        <v>58.76295452237927</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N46" t="n">
-        <v>57.36570280549853</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O46" t="n">
-        <v>52.9865114489331</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P46" t="n">
-        <v>45.33911424727331</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.39045259558288</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R46" t="n">
-        <v>16.85562680900585</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S46" t="n">
-        <v>6.533003759171899</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T46" t="n">
-        <v>1.601727577887737</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30235.0344292198</v>
+        <v>-43142.77829670963</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22515275.52465326</v>
+        <v>22507448.47108161</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2038830.973266804</v>
+        <v>2044846.909829437</v>
       </c>
     </row>
     <row r="11">
@@ -23035,49 +23035,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>408.3496499462784</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H8" t="n">
-        <v>313.8630332531334</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I8" t="n">
-        <v>110.681064734865</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J8" t="n">
-        <v>59.84024364032008</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K8" t="n">
-        <v>56.37184468858104</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L8" t="n">
-        <v>45.70582857298457</v>
+        <v>38.34920004422725</v>
       </c>
       <c r="M8" t="n">
-        <v>30.06347586924083</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N8" t="n">
-        <v>27.52066621168495</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O8" t="n">
-        <v>34.7424592658851</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P8" t="n">
-        <v>52.30405746936194</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.90673990138413</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R8" t="n">
-        <v>97.32270649593409</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S8" t="n">
-        <v>149.3192393418489</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T8" t="n">
-        <v>218.282426424783</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23114,22 +23114,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H9" t="n">
-        <v>83.8929528334216</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I9" t="n">
-        <v>52.13564518093996</v>
+        <v>51.27687280091475</v>
       </c>
       <c r="J9" t="n">
-        <v>47.99559120793558</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K9" t="n">
-        <v>30.71833619036091</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L9" t="n">
-        <v>10.89080423875676</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>17.45638680680048</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.44436225885367</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R9" t="n">
-        <v>72.05307450006524</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S9" t="n">
-        <v>126.8086602394841</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T9" t="n">
-        <v>173.7442875975117</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
@@ -23193,49 +23193,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2658257867129</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H10" t="n">
-        <v>151.2059250900332</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I10" t="n">
-        <v>122.5706220405871</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J10" t="n">
-        <v>60.9349123946991</v>
+        <v>59.45649678074412</v>
       </c>
       <c r="K10" t="n">
-        <v>48.34327957080569</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L10" t="n">
-        <v>42.22763413854417</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M10" t="n">
-        <v>42.38384272141672</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N10" t="n">
-        <v>36.21706801862751</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O10" t="n">
-        <v>46.78920077959938</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P10" t="n">
-        <v>52.55167994450285</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q10" t="n">
-        <v>72.88108513355061</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R10" t="n">
-        <v>108.917154517939</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S10" t="n">
-        <v>195.4606222432698</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T10" t="n">
-        <v>232.0557416755124</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -23281,13 +23281,13 @@
         <v>104.0803818793758</v>
       </c>
       <c r="J11" t="n">
-        <v>45.30876821055362</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K11" t="n">
         <v>34.59292991576666</v>
       </c>
       <c r="L11" t="n">
-        <v>18.68715897392869</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,16 +23296,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.895022563523526</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P11" t="n">
-        <v>27.6834376529322</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q11" t="n">
         <v>52.41767977011631</v>
       </c>
       <c r="R11" t="n">
-        <v>86.56775819371973</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S11" t="n">
         <v>145.4177268441001</v>
@@ -23360,10 +23360,10 @@
         <v>48.98163419533764</v>
       </c>
       <c r="J12" t="n">
-        <v>39.34074399253946</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K12" t="n">
-        <v>15.92582377546657</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>32.7508163066282</v>
       </c>
       <c r="R12" t="n">
-        <v>66.36540832016888</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S12" t="n">
         <v>125.1071014466145</v>
@@ -23439,16 +23439,16 @@
         <v>120.261031053682</v>
       </c>
       <c r="J13" t="n">
-        <v>55.50513938830232</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K13" t="n">
-        <v>39.42049456093674</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L13" t="n">
         <v>30.80954133327054</v>
       </c>
       <c r="M13" t="n">
-        <v>30.34506479299963</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N13" t="n">
         <v>24.46454532135644</v>
@@ -23992,13 +23992,13 @@
         <v>104.0803818793758</v>
       </c>
       <c r="J20" t="n">
-        <v>45.30876821055361</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K20" t="n">
         <v>34.59292991576666</v>
       </c>
       <c r="L20" t="n">
-        <v>18.68715897392866</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,16 +24007,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.895022563523497</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P20" t="n">
-        <v>27.68343765293218</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q20" t="n">
         <v>52.41767977011631</v>
       </c>
       <c r="R20" t="n">
-        <v>86.56775819371971</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S20" t="n">
         <v>145.4177268441001</v>
@@ -24071,10 +24071,10 @@
         <v>48.98163419533764</v>
       </c>
       <c r="J21" t="n">
-        <v>39.34074399253945</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K21" t="n">
-        <v>15.92582377546655</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>32.7508163066282</v>
       </c>
       <c r="R21" t="n">
-        <v>66.36540832016887</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S21" t="n">
         <v>125.1071014466145</v>
@@ -24150,16 +24150,16 @@
         <v>120.261031053682</v>
       </c>
       <c r="J22" t="n">
-        <v>55.50513938830231</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K22" t="n">
-        <v>39.42049456093673</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L22" t="n">
         <v>30.80954133327054</v>
       </c>
       <c r="M22" t="n">
-        <v>30.34506479299962</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N22" t="n">
         <v>24.46454532135644</v>
@@ -24466,13 +24466,13 @@
         <v>104.0803818793758</v>
       </c>
       <c r="J26" t="n">
-        <v>45.30876821055362</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K26" t="n">
         <v>34.59292991576666</v>
       </c>
       <c r="L26" t="n">
-        <v>18.68715897392869</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,16 +24481,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>5.895022563523526</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P26" t="n">
-        <v>27.6834376529322</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q26" t="n">
         <v>52.41767977011631</v>
       </c>
       <c r="R26" t="n">
-        <v>86.56775819371973</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S26" t="n">
         <v>145.4177268441001</v>
@@ -24545,10 +24545,10 @@
         <v>48.98163419533764</v>
       </c>
       <c r="J27" t="n">
-        <v>39.34074399253946</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K27" t="n">
-        <v>15.92582377546657</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>32.7508163066282</v>
       </c>
       <c r="R27" t="n">
-        <v>66.36540832016888</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S27" t="n">
         <v>125.1071014466145</v>
@@ -24624,16 +24624,16 @@
         <v>120.261031053682</v>
       </c>
       <c r="J28" t="n">
-        <v>55.50513938830232</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K28" t="n">
-        <v>39.42049456093674</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L28" t="n">
         <v>30.80954133327054</v>
       </c>
       <c r="M28" t="n">
-        <v>30.34506479299963</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N28" t="n">
         <v>24.46454532135644</v>
@@ -24940,13 +24940,13 @@
         <v>104.0803818793758</v>
       </c>
       <c r="J32" t="n">
-        <v>45.30876821055361</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K32" t="n">
         <v>34.59292991576666</v>
       </c>
       <c r="L32" t="n">
-        <v>18.68715897392866</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,16 +24955,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.895022563523497</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P32" t="n">
-        <v>27.68343765293218</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q32" t="n">
         <v>52.41767977011631</v>
       </c>
       <c r="R32" t="n">
-        <v>86.56775819371971</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S32" t="n">
         <v>145.4177268441001</v>
@@ -25019,10 +25019,10 @@
         <v>48.98163419533764</v>
       </c>
       <c r="J33" t="n">
-        <v>39.34074399253945</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K33" t="n">
-        <v>15.92582377546655</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>32.7508163066282</v>
       </c>
       <c r="R33" t="n">
-        <v>66.36540832016887</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S33" t="n">
         <v>125.1071014466145</v>
@@ -25098,16 +25098,16 @@
         <v>120.261031053682</v>
       </c>
       <c r="J34" t="n">
-        <v>55.50513938830231</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K34" t="n">
-        <v>39.42049456093673</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L34" t="n">
         <v>30.80954133327054</v>
       </c>
       <c r="M34" t="n">
-        <v>30.34506479299962</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N34" t="n">
         <v>24.46454532135644</v>
@@ -25879,22 +25879,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.1434494773101</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H44" t="n">
-        <v>311.7512827003116</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I44" t="n">
-        <v>102.731521154964</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J44" t="n">
-        <v>42.3392365872206</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K44" t="n">
-        <v>30.1423717840528</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L44" t="n">
-        <v>13.16584806626727</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25903,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P44" t="n">
-        <v>22.6521722811321</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.63940900808205</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R44" t="n">
-        <v>84.36996628710321</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S44" t="n">
-        <v>144.6204461552334</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3797838718742</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U44" t="n">
-        <v>253.124187991382</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25958,19 +25958,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.3842698906596</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H45" t="n">
-        <v>82.82742649968367</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I45" t="n">
-        <v>48.33710670689689</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J45" t="n">
-        <v>37.57211130101051</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K45" t="n">
-        <v>12.90294880197315</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.36122038005755</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R45" t="n">
-        <v>65.20312410024947</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S45" t="n">
-        <v>124.7593850245067</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T45" t="n">
-        <v>173.2995924564103</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9312651869476</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26037,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1733313550384</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H46" t="n">
-        <v>150.3835655065998</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I46" t="n">
-        <v>119.7890622225935</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J46" t="n">
-        <v>54.39555607531078</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K46" t="n">
-        <v>37.59710832716642</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L46" t="n">
-        <v>28.47623472395287</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M46" t="n">
-        <v>27.88492012720138</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N46" t="n">
-        <v>22.06289739701717</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O46" t="n">
-        <v>33.71553329164135</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P46" t="n">
-        <v>41.36489886270497</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.13593776851451</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R46" t="n">
-        <v>104.7582685264648</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S46" t="n">
-        <v>193.8486965567239</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T46" t="n">
-        <v>231.6605381947213</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5626848219811</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>152178.3977657561</v>
+        <v>161827.9537618137</v>
       </c>
     </row>
     <row r="5">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>190737.1531056562</v>
+        <v>185705.5587168798</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>28372.24365124264</v>
       </c>
       <c r="D2" t="n">
-        <v>28372.24365124265</v>
+        <v>30171.31341321946</v>
       </c>
       <c r="E2" t="n">
         <v>34623.07026924875</v>
@@ -26334,7 +26334,7 @@
         <v>34623.07026924875</v>
       </c>
       <c r="I2" t="n">
-        <v>34623.07026924875</v>
+        <v>34623.07026924874</v>
       </c>
       <c r="J2" t="n">
         <v>34623.07026924875</v>
@@ -26346,7 +26346,7 @@
         <v>34623.07026924875</v>
       </c>
       <c r="M2" t="n">
-        <v>34623.07026924875</v>
+        <v>34623.07026924874</v>
       </c>
       <c r="N2" t="n">
         <v>34623.07026924875</v>
@@ -26355,7 +26355,7 @@
         <v>34623.07026924875</v>
       </c>
       <c r="P2" t="n">
-        <v>35561.16413834268</v>
+        <v>34623.07026924875</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>15398.85382202829</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>9931.11554663598</v>
       </c>
       <c r="E3" t="n">
-        <v>34216.28536481289</v>
+        <v>24899.89396589369</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5792.623558028404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26475,7 +26475,7 @@
         <v>37323.08488197248</v>
       </c>
       <c r="D5" t="n">
-        <v>37323.08488197248</v>
+        <v>37575.88121519059</v>
       </c>
       <c r="E5" t="n">
         <v>4623.929287772457</v>
@@ -26511,7 +26511,7 @@
         <v>4623.929287772457</v>
       </c>
       <c r="P5" t="n">
-        <v>4813.658475070405</v>
+        <v>4623.929287772457</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158367.339685435</v>
+        <v>-159937.5595897688</v>
       </c>
       <c r="C6" t="n">
-        <v>-24349.69505275813</v>
+        <v>-25895.08734595313</v>
       </c>
       <c r="D6" t="n">
-        <v>-8950.841230729831</v>
+        <v>-18864.72046214778</v>
       </c>
       <c r="E6" t="n">
-        <v>-4217.144383336598</v>
+        <v>3610.680418914925</v>
       </c>
       <c r="F6" t="n">
-        <v>29999.14098147629</v>
+        <v>28510.57438480862</v>
       </c>
       <c r="G6" t="n">
-        <v>29999.1409814763</v>
+        <v>28510.57438480862</v>
       </c>
       <c r="H6" t="n">
-        <v>29999.1409814763</v>
+        <v>28510.57438480862</v>
       </c>
       <c r="I6" t="n">
-        <v>29999.14098147629</v>
+        <v>28510.57438480861</v>
       </c>
       <c r="J6" t="n">
-        <v>29999.14098147629</v>
+        <v>28510.57438480862</v>
       </c>
       <c r="K6" t="n">
-        <v>29999.14098147629</v>
+        <v>28510.57438480862</v>
       </c>
       <c r="L6" t="n">
-        <v>29999.14098147629</v>
+        <v>28510.57438480862</v>
       </c>
       <c r="M6" t="n">
-        <v>29999.1409814763</v>
+        <v>28510.57438480861</v>
       </c>
       <c r="N6" t="n">
-        <v>29999.14098147629</v>
+        <v>28510.57438480862</v>
       </c>
       <c r="O6" t="n">
-        <v>29999.14098147629</v>
+        <v>28510.57438480862</v>
       </c>
       <c r="P6" t="n">
-        <v>24954.88210524387</v>
+        <v>28510.57438480862</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>169.5176551363521</v>
       </c>
       <c r="D3" t="n">
-        <v>169.5176551363522</v>
+        <v>181.113817210578</v>
       </c>
       <c r="E3" t="n">
-        <v>212.1068480629567</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="F3" t="n">
         <v>212.1068480629567</v>
@@ -26755,19 +26755,19 @@
         <v>212.1068480629567</v>
       </c>
       <c r="H3" t="n">
-        <v>212.1068480629568</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="I3" t="n">
         <v>212.1068480629567</v>
       </c>
       <c r="J3" t="n">
-        <v>212.1068480629567</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="K3" t="n">
         <v>212.1068480629567</v>
       </c>
       <c r="L3" t="n">
-        <v>212.1068480629568</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="M3" t="n">
         <v>212.1068480629567</v>
@@ -26779,7 +26779,7 @@
         <v>212.1068480629568</v>
       </c>
       <c r="P3" t="n">
-        <v>220.8100217922204</v>
+        <v>212.1068480629568</v>
       </c>
     </row>
     <row r="4">
@@ -26965,10 +26965,10 @@
         <v>16.91063035445595</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11.59616207422576</v>
       </c>
       <c r="E3" t="n">
-        <v>42.58919292660457</v>
+        <v>30.99303085237881</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8.703173729263682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H8" t="n">
-        <v>6.979186676040868</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I8" t="n">
-        <v>26.27268100359485</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J8" t="n">
-        <v>57.83959430202602</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K8" t="n">
-        <v>86.68655849065632</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L8" t="n">
-        <v>107.5423411575071</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M8" t="n">
-        <v>119.6615757284864</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N8" t="n">
-        <v>121.5978251260991</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O8" t="n">
-        <v>114.8213781582113</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P8" t="n">
-        <v>97.99738977156326</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q8" t="n">
-        <v>73.59195851700804</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R8" t="n">
-        <v>42.80789308325179</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S8" t="n">
-        <v>15.52918016651106</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T8" t="n">
-        <v>2.983169991394498</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U8" t="n">
-        <v>0.054518240847872</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H9" t="n">
-        <v>3.521489401983468</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I9" t="n">
-        <v>12.55390181906004</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J9" t="n">
-        <v>34.44886612539776</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K9" t="n">
-        <v>58.87859914297244</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L9" t="n">
-        <v>79.16954261816147</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M9" t="n">
         <v>92.38712204931191</v>
@@ -31618,25 +31618,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>69.62697801251417</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.54379089706033</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R9" t="n">
-        <v>22.63860307651134</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S9" t="n">
-        <v>6.772710089645765</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T9" t="n">
-        <v>1.46968608556894</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H10" t="n">
-        <v>2.717840438087746</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I10" t="n">
-        <v>9.192859068705788</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J10" t="n">
-        <v>21.61211154090837</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K10" t="n">
-        <v>35.5153382400423</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L10" t="n">
-        <v>45.44740544426072</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M10" t="n">
-        <v>47.91791684452655</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N10" t="n">
-        <v>46.77853588377406</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O10" t="n">
-        <v>43.20754921409843</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P10" t="n">
-        <v>36.97152268744308</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.59716592558918</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R10" t="n">
-        <v>13.7448249558098</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S10" t="n">
-        <v>5.327300736006344</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T10" t="n">
-        <v>1.306119637935828</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H11" t="n">
         <v>8.732620131556803</v>
@@ -31761,7 +31761,7 @@
         <v>32.87336385908399</v>
       </c>
       <c r="J11" t="n">
-        <v>72.37106973179247</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K11" t="n">
         <v>108.4654732634707</v>
@@ -31785,7 +31785,7 @@
         <v>92.08101864827586</v>
       </c>
       <c r="R11" t="n">
-        <v>53.56284138546616</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S11" t="n">
         <v>19.43069266425981</v>
@@ -31794,7 +31794,7 @@
         <v>3.732654180484796</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H12" t="n">
         <v>4.406219617307838</v>
@@ -31840,10 +31840,10 @@
         <v>15.70791280466237</v>
       </c>
       <c r="J12" t="n">
-        <v>43.10371334079389</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K12" t="n">
-        <v>73.67111155786678</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -31861,7 +31861,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.23733684928579</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R12" t="n">
         <v>28.32626925640771</v>
@@ -31870,7 +31870,7 @@
         <v>8.474268882515295</v>
       </c>
       <c r="T12" t="n">
-        <v>1.838926352545822</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U12" t="n">
         <v>0.03001512000890899</v>
@@ -31913,22 +31913,22 @@
         <v>0.3824877588020531</v>
       </c>
       <c r="H13" t="n">
-        <v>3.40066389189462</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I13" t="n">
         <v>11.50245005561084</v>
       </c>
       <c r="J13" t="n">
-        <v>27.04188454730515</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K13" t="n">
-        <v>44.43812324991125</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L13" t="n">
-        <v>56.86549824953434</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M13" t="n">
-        <v>59.95669477294364</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N13" t="n">
         <v>58.53105858104513</v>
@@ -31952,7 +31952,7 @@
         <v>1.634265878517863</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8526908464842476</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H20" t="n">
         <v>8.732620131556803</v>
@@ -32472,7 +32472,7 @@
         <v>32.87336385908399</v>
       </c>
       <c r="J20" t="n">
-        <v>72.37106973179249</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K20" t="n">
         <v>108.4654732634707</v>
@@ -32496,7 +32496,7 @@
         <v>92.08101864827586</v>
       </c>
       <c r="R20" t="n">
-        <v>53.56284138546617</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S20" t="n">
         <v>19.43069266425981</v>
@@ -32505,7 +32505,7 @@
         <v>3.732654180484796</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0682152677187398</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4562298241354165</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H21" t="n">
         <v>4.406219617307838</v>
@@ -32551,10 +32551,10 @@
         <v>15.70791280466237</v>
       </c>
       <c r="J21" t="n">
-        <v>43.1037133407939</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K21" t="n">
-        <v>73.67111155786679</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
@@ -32572,7 +32572,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.2373368492858</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R21" t="n">
         <v>28.32626925640771</v>
@@ -32581,7 +32581,7 @@
         <v>8.474268882515295</v>
       </c>
       <c r="T21" t="n">
-        <v>1.838926352545823</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U21" t="n">
         <v>0.03001512000890899</v>
@@ -32624,22 +32624,22 @@
         <v>0.3824877588020531</v>
       </c>
       <c r="H22" t="n">
-        <v>3.400663891894621</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I22" t="n">
         <v>11.50245005561084</v>
       </c>
       <c r="J22" t="n">
-        <v>27.04188454730516</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K22" t="n">
-        <v>44.43812324991126</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L22" t="n">
-        <v>56.86549824953435</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M22" t="n">
-        <v>59.95669477294365</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N22" t="n">
         <v>58.53105858104513</v>
@@ -32663,7 +32663,7 @@
         <v>1.634265878517863</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0208629686619302</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H26" t="n">
         <v>8.732620131556803</v>
@@ -32946,7 +32946,7 @@
         <v>32.87336385908399</v>
       </c>
       <c r="J26" t="n">
-        <v>72.37106973179247</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K26" t="n">
         <v>108.4654732634707</v>
@@ -32970,7 +32970,7 @@
         <v>92.08101864827586</v>
       </c>
       <c r="R26" t="n">
-        <v>53.56284138546616</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S26" t="n">
         <v>19.43069266425981</v>
@@ -32979,7 +32979,7 @@
         <v>3.732654180484796</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H27" t="n">
         <v>4.406219617307838</v>
@@ -33025,10 +33025,10 @@
         <v>15.70791280466237</v>
       </c>
       <c r="J27" t="n">
-        <v>43.10371334079389</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K27" t="n">
-        <v>73.67111155786678</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
@@ -33046,7 +33046,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.23733684928579</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R27" t="n">
         <v>28.32626925640771</v>
@@ -33055,7 +33055,7 @@
         <v>8.474268882515295</v>
       </c>
       <c r="T27" t="n">
-        <v>1.838926352545822</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U27" t="n">
         <v>0.03001512000890899</v>
@@ -33098,22 +33098,22 @@
         <v>0.3824877588020531</v>
       </c>
       <c r="H28" t="n">
-        <v>3.40066389189462</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I28" t="n">
         <v>11.50245005561084</v>
       </c>
       <c r="J28" t="n">
-        <v>27.04188454730515</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K28" t="n">
-        <v>44.43812324991125</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L28" t="n">
-        <v>56.86549824953434</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M28" t="n">
-        <v>59.95669477294364</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N28" t="n">
         <v>58.53105858104513</v>
@@ -33137,7 +33137,7 @@
         <v>1.634265878517863</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8526908464842476</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H32" t="n">
         <v>8.732620131556803</v>
@@ -33420,7 +33420,7 @@
         <v>32.87336385908399</v>
       </c>
       <c r="J32" t="n">
-        <v>72.37106973179249</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K32" t="n">
         <v>108.4654732634707</v>
@@ -33444,7 +33444,7 @@
         <v>92.08101864827586</v>
       </c>
       <c r="R32" t="n">
-        <v>53.56284138546617</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S32" t="n">
         <v>19.43069266425981</v>
@@ -33453,7 +33453,7 @@
         <v>3.732654180484796</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0682152677187398</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4562298241354165</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H33" t="n">
         <v>4.406219617307838</v>
@@ -33499,10 +33499,10 @@
         <v>15.70791280466237</v>
       </c>
       <c r="J33" t="n">
-        <v>43.1037133407939</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K33" t="n">
-        <v>73.67111155786679</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
@@ -33520,7 +33520,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.2373368492858</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R33" t="n">
         <v>28.32626925640771</v>
@@ -33529,7 +33529,7 @@
         <v>8.474268882515295</v>
       </c>
       <c r="T33" t="n">
-        <v>1.838926352545823</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U33" t="n">
         <v>0.03001512000890899</v>
@@ -33572,22 +33572,22 @@
         <v>0.3824877588020531</v>
       </c>
       <c r="H34" t="n">
-        <v>3.400663891894621</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I34" t="n">
         <v>11.50245005561084</v>
       </c>
       <c r="J34" t="n">
-        <v>27.04188454730516</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K34" t="n">
-        <v>44.43812324991126</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L34" t="n">
-        <v>56.86549824953435</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M34" t="n">
-        <v>59.95669477294365</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N34" t="n">
         <v>58.53105858104513</v>
@@ -33611,7 +33611,7 @@
         <v>1.634265878517863</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0208629686619302</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8876784795667145</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H44" t="n">
-        <v>9.090937228862618</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I44" t="n">
-        <v>34.22222458349579</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J44" t="n">
-        <v>75.3406013551255</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K44" t="n">
-        <v>112.9160313951846</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L44" t="n">
-        <v>140.0823216642244</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M44" t="n">
         <v>149.7250515977273</v>
@@ -34383,25 +34383,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P44" t="n">
-        <v>127.6492749597931</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.85928941031011</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R44" t="n">
-        <v>55.76063329208268</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S44" t="n">
-        <v>20.22797335312653</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T44" t="n">
-        <v>3.885812544303295</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07101427836533715</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4749498581945873</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H45" t="n">
-        <v>4.58701573572141</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I45" t="n">
-        <v>16.35244029310312</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J45" t="n">
-        <v>44.87234603232284</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K45" t="n">
-        <v>76.6939865313602</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
@@ -34468,19 +34468,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.62693277585645</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R45" t="n">
-        <v>29.48855347632711</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S45" t="n">
-        <v>8.821985304623139</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T45" t="n">
-        <v>1.914381226670288</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03124670119701234</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3981820065105613</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H46" t="n">
-        <v>3.540200021521176</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I46" t="n">
-        <v>11.97441888669943</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J46" t="n">
-        <v>28.15146786029669</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K46" t="n">
-        <v>46.26150948368157</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L46" t="n">
-        <v>59.19880485885201</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M46" t="n">
-        <v>62.4168394387419</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N46" t="n">
-        <v>60.9327065053844</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O46" t="n">
-        <v>56.28121670205645</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P46" t="n">
-        <v>48.15830376924097</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.34231329062528</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R46" t="n">
-        <v>17.90371094728396</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S46" t="n">
-        <v>6.939226422552235</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T46" t="n">
-        <v>1.701323118726944</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02171901853693974</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
